--- a/original_data/2016/South Central Crime Report 2016.xlsx
+++ b/original_data/2016/South Central Crime Report 2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="11295" windowHeight="5460" tabRatio="850" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="11295" windowHeight="5460" tabRatio="850" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Data" sheetId="20" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="137">
   <si>
     <t>300-500</t>
   </si>
@@ -418,6 +418,27 @@
   <si>
     <t>TOTAL INCIDENTS - 19</t>
   </si>
+  <si>
+    <t>TOTAL INCIDENTS - 20</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 22</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 31</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 32</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 16</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 10</t>
+  </si>
+  <si>
+    <t>TOTAL INCIDENTS - 9</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +740,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,19 +1022,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1393,10 +1435,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="33" t="s">
         <v>85</v>
       </c>
@@ -1428,7 +1470,7 @@
       </c>
       <c r="B2" s="35">
         <f>SUM(C2:J2)</f>
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="C2" s="33">
         <f>'Annual Totals'!C2</f>
@@ -1440,23 +1482,23 @@
       </c>
       <c r="E2" s="33">
         <f>'Annual Totals'!E2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="33">
         <f>'Annual Totals'!F2</f>
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="G2" s="33">
         <f>'Annual Totals'!G2</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" s="33">
         <f>'Annual Totals'!H2</f>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2" s="33">
         <f>'Annual Totals'!I2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="44">
         <f>'Annual Totals'!J2</f>
@@ -1478,7 +1520,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1493,10 +1535,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="24" t="s">
         <v>85</v>
       </c>
@@ -1523,10 +1565,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23">
         <f>C65</f>
         <v>0</v>
@@ -1537,23 +1579,23 @@
       </c>
       <c r="E2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="30">
         <f t="shared" si="0"/>
@@ -1573,32 +1615,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1648,8 +1690,8 @@
       <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
+      <c r="F7" s="53">
+        <v>1</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
@@ -1680,8 +1722,8 @@
       <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
+      <c r="F8" s="53">
+        <v>2</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -1997,11 +2039,11 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
+      <c r="E18" s="53">
+        <v>1</v>
+      </c>
+      <c r="F18" s="53">
+        <v>1</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -2128,8 +2170,8 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
+      <c r="F22" s="53">
+        <v>4</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -2160,8 +2202,8 @@
       <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="F23" s="9">
-        <v>0</v>
+      <c r="F23" s="53">
+        <v>1</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
@@ -2288,8 +2330,8 @@
       <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
+      <c r="F27" s="53">
+        <v>1</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -2465,18 +2507,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -2599,8 +2641,8 @@
       <c r="H37" s="9">
         <v>0</v>
       </c>
-      <c r="I37" s="9">
-        <v>0</v>
+      <c r="I37" s="53">
+        <v>1</v>
       </c>
       <c r="J37" s="9">
         <v>0</v>
@@ -2622,8 +2664,8 @@
       <c r="E38" s="9">
         <v>0</v>
       </c>
-      <c r="F38" s="9">
-        <v>0</v>
+      <c r="F38" s="53">
+        <v>3</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
@@ -2718,8 +2760,8 @@
       <c r="E41" s="9">
         <v>0</v>
       </c>
-      <c r="F41" s="9">
-        <v>0</v>
+      <c r="F41" s="53">
+        <v>1</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -2750,8 +2792,8 @@
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
+      <c r="F42" s="53">
+        <v>1</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
@@ -2814,8 +2856,8 @@
       <c r="E44" s="9">
         <v>0</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
+      <c r="F44" s="53">
+        <v>2</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
@@ -2942,8 +2984,8 @@
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
+      <c r="F48" s="53">
+        <v>2</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
@@ -3006,8 +3048,8 @@
       <c r="E50" s="9">
         <v>0</v>
       </c>
-      <c r="F50" s="9">
-        <v>0</v>
+      <c r="F50" s="53">
+        <v>2</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
@@ -3038,14 +3080,14 @@
       <c r="E51" s="9">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
-        <v>0</v>
+      <c r="F51" s="53">
+        <v>3</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
       </c>
-      <c r="H51" s="9">
-        <v>0</v>
+      <c r="H51" s="53">
+        <v>1</v>
       </c>
       <c r="I51" s="9">
         <v>0</v>
@@ -3198,8 +3240,8 @@
       <c r="E56" s="9">
         <v>0</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
+      <c r="F56" s="53">
+        <v>1</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
@@ -3262,11 +3304,11 @@
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
+      <c r="F58" s="53">
+        <v>1</v>
+      </c>
+      <c r="G58" s="53">
+        <v>1</v>
       </c>
       <c r="H58" s="9">
         <v>0</v>
@@ -3390,8 +3432,8 @@
       <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
+      <c r="F62" s="53">
+        <v>1</v>
       </c>
       <c r="G62" s="9">
         <v>0</v>
@@ -3439,8 +3481,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="24" t="s">
         <v>85</v>
       </c>
@@ -3472,7 +3514,7 @@
       </c>
       <c r="B65" s="40">
         <f>SUM(C65:J65)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C65" s="23">
         <f>SUM(C7:C63)</f>
@@ -3484,23 +3526,23 @@
       </c>
       <c r="E65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="23">
         <f t="shared" si="1"/>
@@ -3526,7 +3568,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3542,10 +3584,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="24" t="s">
         <v>85</v>
       </c>
@@ -3572,10 +3614,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23">
         <f>C65</f>
         <v>0</v>
@@ -3590,11 +3632,11 @@
       </c>
       <c r="F2" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="32">
         <f t="shared" si="0"/>
@@ -3622,32 +3664,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3729,8 +3771,8 @@
       <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
+      <c r="F8" s="54">
+        <v>1</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -3857,8 +3899,8 @@
       <c r="E12" s="9">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
+      <c r="F12" s="54">
+        <v>1</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
@@ -3988,8 +4030,8 @@
       <c r="F16" s="9">
         <v>0</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
+      <c r="G16" s="54">
+        <v>1</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -4177,8 +4219,8 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
+      <c r="F22" s="54">
+        <v>1</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -4241,8 +4283,8 @@
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
+      <c r="F24" s="54">
+        <v>1</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -4337,8 +4379,8 @@
       <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
+      <c r="F27" s="54">
+        <v>4</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -4369,8 +4411,8 @@
       <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
+      <c r="F28" s="54">
+        <v>2</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -4468,8 +4510,8 @@
       <c r="F31" s="9">
         <v>0</v>
       </c>
-      <c r="G31" s="10">
-        <v>0</v>
+      <c r="G31" s="54">
+        <v>1</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -4514,18 +4556,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -4799,8 +4841,8 @@
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
+      <c r="F42" s="54">
+        <v>2</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
@@ -4959,11 +5001,11 @@
       <c r="E47" s="9">
         <v>0</v>
       </c>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
+      <c r="F47" s="54">
+        <v>3</v>
+      </c>
+      <c r="G47" s="54">
+        <v>1</v>
       </c>
       <c r="H47" s="9">
         <v>0</v>
@@ -5023,8 +5065,8 @@
       <c r="E49" s="9">
         <v>0</v>
       </c>
-      <c r="F49" s="9">
-        <v>0</v>
+      <c r="F49" s="54">
+        <v>2</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
@@ -5055,8 +5097,8 @@
       <c r="E50" s="9">
         <v>0</v>
       </c>
-      <c r="F50" s="9">
-        <v>0</v>
+      <c r="F50" s="54">
+        <v>2</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
@@ -5087,8 +5129,8 @@
       <c r="E51" s="9">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
-        <v>0</v>
+      <c r="F51" s="54">
+        <v>1</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
@@ -5119,8 +5161,8 @@
       <c r="E52" s="9">
         <v>0</v>
       </c>
-      <c r="F52" s="9">
-        <v>0</v>
+      <c r="F52" s="54">
+        <v>1</v>
       </c>
       <c r="G52" s="9">
         <v>0</v>
@@ -5247,8 +5289,8 @@
       <c r="E56" s="9">
         <v>0</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
+      <c r="F56" s="54">
+        <v>1</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
@@ -5311,8 +5353,8 @@
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
+      <c r="F58" s="54">
+        <v>4</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -5343,8 +5385,8 @@
       <c r="E59" s="9">
         <v>0</v>
       </c>
-      <c r="F59" s="9">
-        <v>0</v>
+      <c r="F59" s="54">
+        <v>2</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
@@ -5439,8 +5481,8 @@
       <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
+      <c r="F62" s="54">
+        <v>1</v>
       </c>
       <c r="G62" s="9">
         <v>0</v>
@@ -5488,8 +5530,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="24" t="s">
         <v>85</v>
       </c>
@@ -5521,7 +5563,7 @@
       </c>
       <c r="B65" s="40">
         <f>SUM(C65:J65)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C65" s="23">
         <f>SUM(C7:C63)</f>
@@ -5537,11 +5579,11 @@
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="1"/>
@@ -5575,7 +5617,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:J62"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5590,10 +5632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="24" t="s">
         <v>85</v>
       </c>
@@ -5620,10 +5662,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23">
         <f>C65</f>
         <v>0</v>
@@ -5638,19 +5680,19 @@
       </c>
       <c r="F2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="37">
         <f t="shared" si="0"/>
@@ -5670,32 +5712,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -5777,8 +5819,8 @@
       <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
+      <c r="F8" s="55">
+        <v>1</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -5809,8 +5851,8 @@
       <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
+      <c r="F9" s="55">
+        <v>1</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -5818,8 +5860,8 @@
       <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
+      <c r="I9" s="55">
+        <v>1</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -6033,14 +6075,14 @@
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
+      <c r="F16" s="55">
+        <v>1</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="9">
-        <v>0</v>
+      <c r="H16" s="55">
+        <v>1</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -6097,14 +6139,14 @@
       <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
+      <c r="F18" s="55">
+        <v>2</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
-      <c r="H18" s="9">
-        <v>0</v>
+      <c r="H18" s="55">
+        <v>1</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
@@ -6225,8 +6267,8 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
+      <c r="F22" s="55">
+        <v>1</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
@@ -6289,8 +6331,8 @@
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
+      <c r="F24" s="55">
+        <v>1</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -6385,8 +6427,8 @@
       <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
+      <c r="F27" s="55">
+        <v>1</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -6562,18 +6604,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -6847,14 +6889,14 @@
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
+      <c r="F42" s="55">
+        <v>1</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="9">
-        <v>0</v>
+      <c r="H42" s="55">
+        <v>1</v>
       </c>
       <c r="I42" s="9">
         <v>0</v>
@@ -7135,8 +7177,8 @@
       <c r="E51" s="9">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
-        <v>0</v>
+      <c r="F51" s="55">
+        <v>1</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
@@ -7359,11 +7401,11 @@
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
+      <c r="F58" s="55">
+        <v>1</v>
+      </c>
+      <c r="G58" s="55">
+        <v>1</v>
       </c>
       <c r="H58" s="9">
         <v>0</v>
@@ -7536,8 +7578,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="24" t="s">
         <v>85</v>
       </c>
@@ -7569,7 +7611,7 @@
       </c>
       <c r="B65" s="40">
         <f>SUM(C65:J65)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C65" s="23">
         <f>SUM(C7:C63)</f>
@@ -7585,19 +7627,19 @@
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="23">
         <f t="shared" si="1"/>
@@ -7623,7 +7665,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7639,10 +7681,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="24" t="s">
         <v>85</v>
       </c>
@@ -7669,10 +7711,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23">
         <f>C65</f>
         <v>0</v>
@@ -7687,15 +7729,15 @@
       </c>
       <c r="F2" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="38">
         <f t="shared" si="0"/>
@@ -7719,32 +7761,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -7829,8 +7871,8 @@
       <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
+      <c r="G8" s="56">
+        <v>1</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -7986,8 +8028,8 @@
       <c r="E13" s="9">
         <v>0</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
+      <c r="F13" s="56">
+        <v>1</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -8434,8 +8476,8 @@
       <c r="E27" s="9">
         <v>0</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
+      <c r="F27" s="56">
+        <v>1</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
@@ -8611,18 +8653,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -8896,8 +8938,8 @@
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
+      <c r="F42" s="56">
+        <v>1</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
@@ -9056,8 +9098,8 @@
       <c r="E47" s="9">
         <v>0</v>
       </c>
-      <c r="F47" s="9">
-        <v>0</v>
+      <c r="F47" s="56">
+        <v>2</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -9088,8 +9130,8 @@
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
+      <c r="F48" s="56">
+        <v>1</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
@@ -9190,8 +9232,8 @@
       <c r="G51" s="9">
         <v>0</v>
       </c>
-      <c r="H51" s="9">
-        <v>0</v>
+      <c r="H51" s="56">
+        <v>2</v>
       </c>
       <c r="I51" s="9">
         <v>0</v>
@@ -9344,8 +9386,8 @@
       <c r="E56" s="9">
         <v>0</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
+      <c r="F56" s="56">
+        <v>1</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
@@ -9585,8 +9627,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="24" t="s">
         <v>85</v>
       </c>
@@ -9618,7 +9660,7 @@
       </c>
       <c r="B65" s="40">
         <f>SUM(C65:J65)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C65" s="23">
         <f>SUM(C7:C63)</f>
@@ -9634,15 +9676,15 @@
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="1"/>
@@ -9671,8 +9713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:J33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9688,10 +9730,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="24" t="s">
         <v>85</v>
       </c>
@@ -9718,10 +9760,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23">
         <f>C65</f>
         <v>0</v>
@@ -9736,15 +9778,15 @@
       </c>
       <c r="F2" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="39">
         <f t="shared" si="0"/>
@@ -9768,32 +9810,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -9875,8 +9917,8 @@
       <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
+      <c r="F8" s="57">
+        <v>1</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -10131,8 +10173,8 @@
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
+      <c r="F16" s="57">
+        <v>1</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -10265,8 +10307,8 @@
       <c r="G20" s="9">
         <v>0</v>
       </c>
-      <c r="H20" s="9">
-        <v>0</v>
+      <c r="H20" s="57">
+        <v>1</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
@@ -10355,8 +10397,8 @@
       <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="F23" s="9">
-        <v>0</v>
+      <c r="F23" s="57">
+        <v>1</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
@@ -10515,11 +10557,11 @@
       <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
+      <c r="F28" s="57">
+        <v>1</v>
+      </c>
+      <c r="G28" s="57">
+        <v>1</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
@@ -10660,18 +10702,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -10983,8 +11025,8 @@
       <c r="G43" s="9">
         <v>0</v>
       </c>
-      <c r="H43" s="9">
-        <v>0</v>
+      <c r="H43" s="57">
+        <v>1</v>
       </c>
       <c r="I43" s="9">
         <v>0</v>
@@ -11233,8 +11275,8 @@
       <c r="E51" s="9">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
-        <v>0</v>
+      <c r="F51" s="57">
+        <v>1</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
@@ -11559,8 +11601,8 @@
       <c r="G61" s="9">
         <v>0</v>
       </c>
-      <c r="H61" s="9">
-        <v>0</v>
+      <c r="H61" s="57">
+        <v>1</v>
       </c>
       <c r="I61" s="9">
         <v>0</v>
@@ -11634,8 +11676,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="24" t="s">
         <v>85</v>
       </c>
@@ -11667,7 +11709,7 @@
       </c>
       <c r="B65" s="40">
         <f>SUM(C65:J65)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C65" s="23">
         <f>SUM(C7:C63)</f>
@@ -11683,15 +11725,15 @@
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="1"/>
@@ -11739,10 +11781,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="31" t="s">
         <v>85</v>
       </c>
@@ -11769,10 +11811,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="30">
         <f>C66</f>
         <v>1</v>
@@ -11783,23 +11825,23 @@
       </c>
       <c r="E2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="30">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="G2" s="30">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" s="30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2" s="30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" s="30">
         <f t="shared" si="0"/>
@@ -11819,32 +11861,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -11899,11 +11941,11 @@
       </c>
       <c r="F8" s="9">
         <f>SUM(January:December!F8)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9">
         <f>SUM(January:December!G8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="9">
         <f>SUM(January:December!H8)</f>
@@ -11939,7 +11981,7 @@
       </c>
       <c r="F9" s="9">
         <f>SUM(January:December!F9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="9">
         <f>SUM(January:December!G9)</f>
@@ -11947,11 +11989,11 @@
       </c>
       <c r="H9" s="9">
         <f>SUM(January:December!H9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
         <f>SUM(January:December!I9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="9">
         <f>SUM(January:December!J9)</f>
@@ -12059,7 +12101,7 @@
       </c>
       <c r="F12" s="9">
         <f>SUM(January:December!F12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="9">
         <f>SUM(January:December!G12)</f>
@@ -12099,7 +12141,7 @@
       </c>
       <c r="F13" s="9">
         <f>SUM(January:December!F13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="9">
         <f>SUM(January:December!G13)</f>
@@ -12179,7 +12221,7 @@
       </c>
       <c r="F15" s="9">
         <f>SUM(January:December!F15)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="9">
         <f>SUM(January:December!G15)</f>
@@ -12219,15 +12261,15 @@
       </c>
       <c r="F16" s="9">
         <f>SUM(January:December!F16)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="9">
         <f>SUM(January:December!G16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="9">
         <f>SUM(January:December!H16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="9">
         <f>SUM(January:December!I16)</f>
@@ -12267,7 +12309,7 @@
       </c>
       <c r="H17" s="9">
         <f>SUM(January:December!H17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9">
         <f>SUM(January:December!I17)</f>
@@ -12295,11 +12337,11 @@
       </c>
       <c r="E18" s="9">
         <f>SUM(January:December!E18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="9">
         <f>SUM(January:December!F18)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G18" s="9">
         <f>SUM(January:December!G18)</f>
@@ -12307,7 +12349,7 @@
       </c>
       <c r="H18" s="9">
         <f>SUM(January:December!H18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="9">
         <f>SUM(January:December!I18)</f>
@@ -12387,7 +12429,7 @@
       </c>
       <c r="H20" s="9">
         <f>SUM(January:December!H20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="9">
         <f>SUM(January:December!I20)</f>
@@ -12459,7 +12501,7 @@
       </c>
       <c r="F22" s="9">
         <f>SUM(January:December!F22)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G22" s="9">
         <f>SUM(January:December!G22)</f>
@@ -12467,7 +12509,7 @@
       </c>
       <c r="H22" s="9">
         <f>SUM(January:December!H22)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="9">
         <f>SUM(January:December!I22)</f>
@@ -12499,7 +12541,7 @@
       </c>
       <c r="F23" s="9">
         <f>SUM(January:December!F23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="9">
         <f>SUM(January:December!G22)</f>
@@ -12539,7 +12581,7 @@
       </c>
       <c r="F24" s="9">
         <f>SUM(January:December!F24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="9">
         <f>SUM(January:December!G23)</f>
@@ -12659,7 +12701,7 @@
       </c>
       <c r="F27" s="9">
         <f>SUM(January:December!F27)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G27" s="9">
         <f>SUM(January:December!G26)</f>
@@ -12667,7 +12709,7 @@
       </c>
       <c r="H27" s="9">
         <f>SUM(January:December!H27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9">
         <f>SUM(January:December!I27)</f>
@@ -12699,7 +12741,7 @@
       </c>
       <c r="F28" s="9">
         <f>SUM(January:December!F28)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28" s="9">
         <f>SUM(January:December!G27)</f>
@@ -12743,7 +12785,7 @@
       </c>
       <c r="G29" s="9">
         <f>SUM(January:December!G28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="9">
         <f>SUM(January:December!H29)</f>
@@ -12863,7 +12905,7 @@
       </c>
       <c r="G32" s="9">
         <f>SUM(January:December!G31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9">
         <f>SUM(January:December!H32)</f>
@@ -12919,18 +12961,18 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -13065,7 +13107,7 @@
       </c>
       <c r="F38" s="9">
         <f>SUM(January:December!F37)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="9">
         <f>SUM(January:December!G37)</f>
@@ -13077,7 +13119,7 @@
       </c>
       <c r="I38" s="9">
         <f>SUM(January:December!I37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="9">
         <f>SUM(January:December!J37)</f>
@@ -13105,7 +13147,7 @@
       </c>
       <c r="F39" s="9">
         <f>SUM(January:December!F38)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G39" s="9">
         <f>SUM(January:December!G38)</f>
@@ -13185,7 +13227,7 @@
       </c>
       <c r="F41" s="9">
         <f>SUM(January:December!F40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="9">
         <f>SUM(January:December!G40)</f>
@@ -13225,7 +13267,7 @@
       </c>
       <c r="F42" s="9">
         <f>SUM(January:December!F41)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="9">
         <f>SUM(January:December!G41)</f>
@@ -13265,7 +13307,7 @@
       </c>
       <c r="F43" s="9">
         <f>SUM(January:December!F42)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G43" s="9">
         <f>SUM(January:December!G42)</f>
@@ -13273,7 +13315,7 @@
       </c>
       <c r="H43" s="9">
         <f>SUM(January:December!H42)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" s="9">
         <f>SUM(January:December!I42)</f>
@@ -13313,7 +13355,7 @@
       </c>
       <c r="H44" s="9">
         <f>SUM(January:December!H43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="9">
         <f>SUM(January:December!I43)</f>
@@ -13345,7 +13387,7 @@
       </c>
       <c r="F45" s="9">
         <f>SUM(January:December!F44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="9">
         <f>SUM(January:December!G44)</f>
@@ -13425,7 +13467,7 @@
       </c>
       <c r="F47" s="9">
         <f>SUM(January:December!F46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="9">
         <f>SUM(January:December!G46)</f>
@@ -13465,11 +13507,11 @@
       </c>
       <c r="F48" s="9">
         <f>SUM(January:December!F47)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G48" s="9">
         <f>SUM(January:December!G47)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="9">
         <f>SUM(January:December!H47)</f>
@@ -13505,7 +13547,7 @@
       </c>
       <c r="F49" s="9">
         <f>SUM(January:December!F48)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="9">
         <f>SUM(January:December!G48)</f>
@@ -13545,7 +13587,7 @@
       </c>
       <c r="F50" s="9">
         <f>SUM(January:December!F49)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="9">
         <f>SUM(January:December!G49)</f>
@@ -13585,7 +13627,7 @@
       </c>
       <c r="F51" s="9">
         <f>SUM(January:December!F50)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" s="9">
         <f>SUM(January:December!G50)</f>
@@ -13625,7 +13667,7 @@
       </c>
       <c r="F52" s="9">
         <f>SUM(January:December!F51)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G52" s="9">
         <f>SUM(January:December!G51)</f>
@@ -13633,7 +13675,7 @@
       </c>
       <c r="H52" s="9">
         <f>SUM(January:December!H51)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I52" s="9">
         <f>SUM(January:December!I51)</f>
@@ -13665,7 +13707,7 @@
       </c>
       <c r="F53" s="9">
         <f>SUM(January:December!F52)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="9">
         <f>SUM(January:December!G52)</f>
@@ -13825,7 +13867,7 @@
       </c>
       <c r="F57" s="9">
         <f>SUM(January:December!F56)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="9">
         <f>SUM(January:December!G56)</f>
@@ -13865,7 +13907,7 @@
       </c>
       <c r="F58" s="9">
         <f>SUM(January:December!F57)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" s="9">
         <f>SUM(January:December!G57)</f>
@@ -13905,11 +13947,11 @@
       </c>
       <c r="F59" s="9">
         <f>SUM(January:December!F58)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G59" s="9">
         <f>SUM(January:December!G58)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="9">
         <f>SUM(January:December!H58)</f>
@@ -13945,7 +13987,7 @@
       </c>
       <c r="F60" s="9">
         <f>SUM(January:December!F59)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G60" s="9">
         <f>SUM(January:December!G59)</f>
@@ -14033,7 +14075,7 @@
       </c>
       <c r="H62" s="9">
         <f>SUM(January:December!H61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="9">
         <f>SUM(January:December!I61)</f>
@@ -14065,7 +14107,7 @@
       </c>
       <c r="F63" s="9">
         <f>SUM(January:December!F62)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63" s="9">
         <f>SUM(January:December!G62)</f>
@@ -14125,8 +14167,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="54"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="61"/>
       <c r="C65" s="31" t="s">
         <v>85</v>
       </c>
@@ -14158,7 +14200,7 @@
       </c>
       <c r="B66" s="40">
         <f>SUM(C66:J66)</f>
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="C66" s="30">
         <f>SUM(C8:C64)</f>
@@ -14170,23 +14212,23 @@
       </c>
       <c r="E66" s="42">
         <f>SUM(E8:E64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="42">
         <f>SUM(F8:F64)</f>
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="G66" s="42">
         <f t="shared" ref="G66:J66" si="1">SUM(G8:G64)</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H66" s="42">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I66" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J66" s="42">
         <f t="shared" si="1"/>
@@ -14233,10 +14275,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="12" t="s">
         <v>85</v>
       </c>
@@ -14263,10 +14305,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="13">
         <f t="shared" ref="C2:J2" si="0">C65</f>
         <v>1</v>
@@ -14313,32 +14355,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -15205,18 +15247,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="61"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -16179,8 +16221,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="18" t="s">
         <v>85</v>
       </c>
@@ -16288,10 +16330,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="41" t="s">
         <v>85</v>
       </c>
@@ -16318,10 +16360,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="42">
         <f t="shared" ref="C2:J2" si="0">C65</f>
         <v>0</v>
@@ -16356,32 +16398,32 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -17248,18 +17290,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -18222,8 +18264,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="61"/>
       <c r="C64" s="41" t="s">
         <v>85</v>
       </c>
@@ -18328,10 +18370,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="7" t="s">
         <v>85</v>
       </c>
@@ -18358,10 +18400,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="11">
         <f>C65</f>
         <v>0</v>
@@ -18408,32 +18450,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -19300,18 +19342,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -20274,8 +20316,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="18" t="s">
         <v>85</v>
       </c>
@@ -20377,10 +20419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="15" t="s">
         <v>85</v>
       </c>
@@ -20407,10 +20449,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="14">
         <f>C65</f>
         <v>0</v>
@@ -20457,32 +20499,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -21349,18 +21391,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -22323,8 +22365,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="18" t="s">
         <v>85</v>
       </c>
@@ -22409,7 +22451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -22425,10 +22467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="20" t="s">
         <v>85</v>
       </c>
@@ -22455,10 +22497,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="19">
         <f>C65</f>
         <v>0</v>
@@ -22505,32 +22547,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -23397,18 +23439,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -24371,8 +24413,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="20" t="s">
         <v>85</v>
       </c>
@@ -24457,8 +24499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24473,10 +24515,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="22" t="s">
         <v>85</v>
       </c>
@@ -24503,10 +24545,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="21">
         <f>C65</f>
         <v>0</v>
@@ -24521,15 +24563,15 @@
       </c>
       <c r="F2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="29">
         <f t="shared" si="0"/>
@@ -24553,32 +24595,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -24660,11 +24702,11 @@
       <c r="E8" s="9">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
+      <c r="F8" s="51">
+        <v>2</v>
+      </c>
+      <c r="G8" s="51">
+        <v>1</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -24884,8 +24926,8 @@
       <c r="E15" s="9">
         <v>0</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
+      <c r="F15" s="51">
+        <v>1</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
@@ -24954,8 +24996,8 @@
       <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="H17" s="9">
-        <v>0</v>
+      <c r="H17" s="51">
+        <v>1</v>
       </c>
       <c r="I17" s="9">
         <v>0</v>
@@ -24980,8 +25022,8 @@
       <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
+      <c r="F18" s="51">
+        <v>2</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -25108,14 +25150,14 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
+      <c r="F22" s="51">
+        <v>4</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
+      <c r="H22" s="51">
+        <v>3</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -25445,18 +25487,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -25570,8 +25612,8 @@
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
+      <c r="F37" s="51">
+        <v>1</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
@@ -25730,14 +25772,14 @@
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
+      <c r="F42" s="51">
+        <v>1</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="H42" s="9">
-        <v>0</v>
+      <c r="H42" s="51">
+        <v>1</v>
       </c>
       <c r="I42" s="9">
         <v>0</v>
@@ -25858,8 +25900,8 @@
       <c r="E46" s="9">
         <v>0</v>
       </c>
-      <c r="F46" s="9">
-        <v>0</v>
+      <c r="F46" s="51">
+        <v>1</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
@@ -25890,8 +25932,8 @@
       <c r="E47" s="9">
         <v>0</v>
       </c>
-      <c r="F47" s="9">
-        <v>0</v>
+      <c r="F47" s="51">
+        <v>2</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
@@ -26419,8 +26461,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="22" t="s">
         <v>85</v>
       </c>
@@ -26452,7 +26494,7 @@
       </c>
       <c r="B65" s="40">
         <f>SUM(C65:J65)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C65" s="21">
         <f>SUM(C7:C63)</f>
@@ -26468,15 +26510,15 @@
       </c>
       <c r="F65" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G65" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65" s="21">
         <f t="shared" si="1"/>
@@ -26506,7 +26548,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26521,10 +26563,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="22" t="s">
         <v>85</v>
       </c>
@@ -26551,10 +26593,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="63"/>
+      <c r="A2" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="21">
         <f>C65</f>
         <v>0</v>
@@ -26569,15 +26611,15 @@
       </c>
       <c r="F2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="30">
         <f t="shared" si="0"/>
@@ -26601,32 +26643,32 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -26711,8 +26753,8 @@
       <c r="F8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
+      <c r="G8" s="52">
+        <v>1</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -26746,8 +26788,8 @@
       <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
-        <v>0</v>
+      <c r="H9" s="52">
+        <v>1</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -26964,8 +27006,8 @@
       <c r="E16" s="9">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
+      <c r="F16" s="52">
+        <v>1</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -27156,14 +27198,14 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
+      <c r="F22" s="52">
+        <v>2</v>
       </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
+      <c r="H22" s="52">
+        <v>1</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -27322,8 +27364,8 @@
       <c r="G27" s="9">
         <v>0</v>
       </c>
-      <c r="H27" s="9">
-        <v>0</v>
+      <c r="H27" s="52">
+        <v>1</v>
       </c>
       <c r="I27" s="9">
         <v>0</v>
@@ -27493,18 +27535,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -27650,8 +27692,8 @@
       <c r="E38" s="9">
         <v>0</v>
       </c>
-      <c r="F38" s="9">
-        <v>0</v>
+      <c r="F38" s="52">
+        <v>2</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
@@ -27714,8 +27756,8 @@
       <c r="E40" s="9">
         <v>0</v>
       </c>
-      <c r="F40" s="9">
-        <v>0</v>
+      <c r="F40" s="52">
+        <v>1</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
@@ -27746,8 +27788,8 @@
       <c r="E41" s="9">
         <v>0</v>
       </c>
-      <c r="F41" s="9">
-        <v>0</v>
+      <c r="F41" s="52">
+        <v>2</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
@@ -27941,8 +27983,8 @@
       <c r="F47" s="9">
         <v>0</v>
       </c>
-      <c r="G47" s="9">
-        <v>0</v>
+      <c r="G47" s="52">
+        <v>1</v>
       </c>
       <c r="H47" s="9">
         <v>0</v>
@@ -28066,8 +28108,8 @@
       <c r="E51" s="9">
         <v>0</v>
       </c>
-      <c r="F51" s="9">
-        <v>0</v>
+      <c r="F51" s="52">
+        <v>1</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
@@ -28098,8 +28140,8 @@
       <c r="E52" s="9">
         <v>0</v>
       </c>
-      <c r="F52" s="9">
-        <v>0</v>
+      <c r="F52" s="52">
+        <v>1</v>
       </c>
       <c r="G52" s="9">
         <v>0</v>
@@ -28258,8 +28300,8 @@
       <c r="E57" s="9">
         <v>0</v>
       </c>
-      <c r="F57" s="9">
-        <v>0</v>
+      <c r="F57" s="52">
+        <v>2</v>
       </c>
       <c r="G57" s="9">
         <v>0</v>
@@ -28290,8 +28332,8 @@
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
+      <c r="F58" s="52">
+        <v>1</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
@@ -28322,8 +28364,8 @@
       <c r="E59" s="9">
         <v>0</v>
       </c>
-      <c r="F59" s="9">
-        <v>0</v>
+      <c r="F59" s="52">
+        <v>2</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
@@ -28418,8 +28460,8 @@
       <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
+      <c r="F62" s="52">
+        <v>2</v>
       </c>
       <c r="G62" s="9">
         <v>0</v>
@@ -28467,8 +28509,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
       <c r="C64" s="22" t="s">
         <v>85</v>
       </c>
@@ -28500,7 +28542,7 @@
       </c>
       <c r="B65" s="40">
         <f>SUM(C65:J65)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C65" s="21">
         <f>SUM(C7:C63)</f>
@@ -28516,15 +28558,15 @@
       </c>
       <c r="F65" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G65" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65" s="21">
         <f t="shared" si="1"/>
